--- a/results_cmp.xlsx
+++ b/results_cmp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yixiang/repos/cs4246-project-blackjack/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\cs4246-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9061B683-D702-4A4D-857B-1850E9AF5EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7BCDC-B0EF-44D6-8342-334E192977BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="17340" windowHeight="18900" xr2:uid="{055D1B8C-A1B7-2E42-AC74-8FEFC4B03BAD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{055D1B8C-A1B7-2E42-AC74-8FEFC4B03BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal preplay ep" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Preplay episodes</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>pending</t>
+  </si>
+  <si>
+    <t>pending full info also</t>
+  </si>
+  <si>
+    <t>all of these are saved into full info</t>
+  </si>
+  <si>
+    <t>only 100_100 belongs to full info</t>
+  </si>
+  <si>
+    <t>transfer the rest into add split</t>
+  </si>
+  <si>
+    <t>need to run bet sizing sarsa file</t>
   </si>
 </sst>
 </file>
@@ -458,18 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA56301A-5BE6-A148-9F15-753DAC43EA57}">
-  <dimension ref="B1:E8"/>
+  <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1000000</v>
       </c>
@@ -490,8 +505,11 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>5000000</v>
       </c>
@@ -501,8 +519,11 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>20000000</v>
       </c>
@@ -512,16 +533,25 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>50000000</v>
       </c>
       <c r="C5" s="1">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>100000000</v>
       </c>
@@ -532,20 +562,26 @@
         <v>4.6349999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>200000000</v>
       </c>
       <c r="C7" s="1">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>500000000</v>
       </c>
       <c r="C8" s="1">
         <v>50000000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -561,9 +597,9 @@
       <selection activeCell="B1" sqref="B1:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -585,7 +621,7 @@
         <v>-2.2980000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -596,7 +632,7 @@
         <v>4.6349999999999999E-4</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -607,7 +643,7 @@
         <v>8.5349999999999998E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -618,7 +654,7 @@
         <v>-2.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -630,18 +666,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB12773-D184-3748-80F7-005D7C1CBB85}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -655,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -665,8 +701,11 @@
       <c r="D2" s="1">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -676,8 +715,11 @@
       <c r="D3" s="1">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -687,8 +729,11 @@
       <c r="D4" s="1">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>

--- a/results_cmp.xlsx
+++ b/results_cmp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\cs4246-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D7BCDC-B0EF-44D6-8342-334E192977BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D042D45-7FC9-4435-86FA-BED8CFA4B8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{055D1B8C-A1B7-2E42-AC74-8FEFC4B03BAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{055D1B8C-A1B7-2E42-AC74-8FEFC4B03BAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Optimal preplay ep" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Preplay episodes</t>
   </si>
@@ -88,32 +88,35 @@
     <t>pending</t>
   </si>
   <si>
-    <t>pending full info also</t>
+    <t>need to run bet sizing sarsa file</t>
   </si>
   <si>
-    <t>all of these are saved into full info</t>
+    <t>full info</t>
   </si>
   <si>
-    <t>only 100_100 belongs to full info</t>
+    <t>bet multipliers not yet converged</t>
   </si>
   <si>
-    <t>transfer the rest into add split</t>
-  </si>
-  <si>
-    <t>need to run bet sizing sarsa file</t>
+    <t>Number of Actions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,9 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,6 +158,2250 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>EV per Hand vs Preplay Episodes </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>(Fixed 50m Bet Episodes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Optimal preplay ep'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EV per hand</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="22225">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Optimal preplay ep'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>500000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Optimal preplay ep'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-4.8756500000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.3921499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.2446499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.4079999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6349999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0599999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.918E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F6A6-452E-A4A7-3CA18D66316E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="872198991"/>
+        <c:axId val="872200431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="872198991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Number of Preplay Episodes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872200431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="millions"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="872200431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>EV Per Hand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872198991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impact</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Information Access</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>actions_100m_100m!$E$5:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.5349999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.392E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C3D-45E1-9AFB-C1B7F4EC4A51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1351877951"/>
+        <c:axId val="1351878911"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1351877951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Level of information Access</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Normal</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> (Left) vs Full (right)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1351878911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1351878911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>eV</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Per hand</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1351877951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>738187</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A012240-9D92-6597-2C5B-8B06CB6178FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A graph with a line going up&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52774DAD-83DB-9659-9627-6F84F85DC2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="304800" y="1743075"/>
+          <a:ext cx="7162800" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>614362</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D543806-DA5D-ACB2-C96D-BBD4549258F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -473,10 +2721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA56301A-5BE6-A148-9F15-753DAC43EA57}">
-  <dimension ref="B1:G8"/>
+  <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -484,7 +2732,7 @@
     <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -495,63 +2743,51 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>1000000</v>
       </c>
       <c r="C2" s="1">
         <v>50000000</v>
       </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+      <c r="D2">
+        <v>-4.8756500000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>5000000</v>
       </c>
       <c r="C3" s="1">
         <v>50000000</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
+      <c r="D3">
+        <v>-2.3921499999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>20000000</v>
       </c>
       <c r="C4" s="1">
         <v>50000000</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
+      <c r="D4">
+        <v>-1.2446499999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>50000000</v>
       </c>
       <c r="C5" s="1">
         <v>50000000</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+      <c r="D5">
+        <v>-7.4079999999999997E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>100000000</v>
       </c>
@@ -562,30 +2798,32 @@
         <v>4.6349999999999999E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>200000000</v>
       </c>
       <c r="C7" s="1">
         <v>50000000</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
+      <c r="D7">
+        <v>6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>500000000</v>
       </c>
       <c r="C8" s="1">
         <v>50000000</v>
       </c>
-      <c r="E8" t="s">
-        <v>15</v>
+      <c r="D8">
+        <v>-1.918E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -666,10 +2904,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB12773-D184-3748-80F7-005D7C1CBB85}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -677,7 +2915,10 @@
     <col min="3" max="4" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -691,7 +2932,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -702,10 +2946,13 @@
         <v>100000000</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -715,11 +2962,14 @@
       <c r="D3" s="1">
         <v>100000000</v>
       </c>
-      <c r="F3" t="s">
-        <v>15</v>
+      <c r="E3">
+        <v>-1.7705499999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -729,11 +2979,14 @@
       <c r="D4" s="1">
         <v>100000000</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="E4">
+        <v>-6.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -746,8 +2999,43 @@
       <c r="E5">
         <v>8.5349999999999998E-4</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="E6">
+        <v>-1.392E-3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200000000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>